--- a/biology/Médecine/Muscle_coccygien/Muscle_coccygien.xlsx
+++ b/biology/Médecine/Muscle_coccygien/Muscle_coccygien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle coccygien ou muscle ischio-coccygien en anatomie humaine est un muscle pair très mince souvent réduit a une simple lame fibreuse, situé au fond du pelvis et qui forme la partie dorsale du diaphragme pelvien. C'est ce muscle qui permet aux mammifères d'exercer des mouvements avec leur queue. L'Homme n'ayant pas de queue, sinon le reliquat que constitue le coccyx, ce muscle est utile principalement dans le maintien des organes viscéraux.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son origine est insérée sur les faces latérales du sacrum et du coccyx ainsi que sur l'arcus tendineux au niveau du muscle piriforme. Toutes ses fibres convergent et se terminent vers l'épine ischiatique homo-latérale.
 Elles complètent en arrière le diaphragme pelvien.
@@ -543,7 +557,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par le nerf pudendal issu des racines nerveuses S2-S3-S4.
 </t>
